--- a/biology/Médecine/Marc_Feldmann/Marc_Feldmann.xlsx
+++ b/biology/Médecine/Marc_Feldmann/Marc_Feldmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Feldmann (né le 2 décembre 1944) est un immunologiste britannique formé en Australie. Il est professeur à l'Université d'Oxford et chercheur principal au Somerville College d'Oxford [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Feldmann (né le 2 décembre 1944) est un immunologiste britannique formé en Australie. Il est professeur à l'Université d'Oxford et chercheur principal au Somerville College d'Oxford .
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feldmann est né le 2 décembre 1944 à Lviv dans une famille juive qui a réussi à se rendre en France dans l'immédiat après-guerre [2],[3],[4]. Il émigre de France en Australie à l'âge de huit ans [4]. Après avoir obtenu un diplôme MBBS de l'Université de Melbourne en 1967, il obtient un doctorat en immunologie à l'Institut Walter et Eliza Hall en 1972 avec Gustav Nossal (en) [2],[3].
-Il part à Londres dans les années 1970, travaillant d'abord avec Avrion Mitchison à l'unité d'immunologie des tumeurs du Fonds impérial de recherche sur le cancer; en 1985, il rejoint le Charing Cross Sunley Research Center et le Kennedy Institute of Rheumatology, qui rejoint la Faculté de médecine de l'Imperial College en 2000; en août 2011, l'Institut est transféré à l'Université d'Oxford [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feldmann est né le 2 décembre 1944 à Lviv dans une famille juive qui a réussi à se rendre en France dans l'immédiat après-guerre . Il émigre de France en Australie à l'âge de huit ans . Après avoir obtenu un diplôme MBBS de l'Université de Melbourne en 1967, il obtient un doctorat en immunologie à l'Institut Walter et Eliza Hall en 1972 avec Gustav Nossal (en) ,.
+Il part à Londres dans les années 1970, travaillant d'abord avec Avrion Mitchison à l'unité d'immunologie des tumeurs du Fonds impérial de recherche sur le cancer; en 1985, il rejoint le Charing Cross Sunley Research Center et le Kennedy Institute of Rheumatology, qui rejoint la Faculté de médecine de l'Imperial College en 2000; en août 2011, l'Institut est transféré à l'Université d'Oxford .
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1980, il publie une hypothèse sur le mécanisme d'induction des maladies auto-immunes, mettant en évidence le rôle des cytokines [5]. Ce modèle est validé dans des expériences avec des tissus de maladies thyroïdiennes. À partir de 1984, il collabore avec Ravinder N. Maini au Kennedy Institute of Rheumatology pour étudier le mécanisme de la maladie dans la polyarthrite rhumatoïde, une maladie auto-immune affectant 1 % de la population[6].
-Le groupe de Feldmann démontre que les articulations malades ont beaucoup plus de cytokines pro-inflammatoires que la normale, et identifie l'une d'entre elles, le facteur de nécrose tumorale alpha (en abrégé TNFα) comme clé [7].
-Le blocage du TNFα réduit les niveaux des autres cytokines pro-inflammatoires dans les modèles d'arthrite en éprouvette [8], ce qui justifie le test du blocage du TNF chez les patients atteints de polyarthrite rhumatoïde qui ont échoué à tous les traitements existants.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1980, il publie une hypothèse sur le mécanisme d'induction des maladies auto-immunes, mettant en évidence le rôle des cytokines . Ce modèle est validé dans des expériences avec des tissus de maladies thyroïdiennes. À partir de 1984, il collabore avec Ravinder N. Maini au Kennedy Institute of Rheumatology pour étudier le mécanisme de la maladie dans la polyarthrite rhumatoïde, une maladie auto-immune affectant 1 % de la population.
+Le groupe de Feldmann démontre que les articulations malades ont beaucoup plus de cytokines pro-inflammatoires que la normale, et identifie l'une d'entre elles, le facteur de nécrose tumorale alpha (en abrégé TNFα) comme clé .
+Le blocage du TNFα réduit les niveaux des autres cytokines pro-inflammatoires dans les modèles d'arthrite en éprouvette , ce qui justifie le test du blocage du TNF chez les patients atteints de polyarthrite rhumatoïde qui ont échoué à tous les traitements existants.
 Le premier d'une série d'essais cliniques réussis est réalisé en 1992 à l'hôpital Charing Cross, en utilisant l'anticorps infliximab de Centocor, une biotechnologie qui fait maintenant partie de Johnson and Johnson.
-Le succès conduit d'autres entreprises à se joindre à la course au marché. En 1998[9], l'étanercept (Enbrel) [10] est approuvé pour le traitement aux États-Unis, et en 1999, l'infliximab (Remicade) est également approuvé ; il y a plusieurs autres médicaments anti-TNF approuvés, et ils deviennent le traitement standard pour arrêter les voies inflammatoires et destructrices des tissus de la polyarthrite rhumatoïde et d'autres maladies auto-immunes, notamment la maladie de Crohn, la colite ulcéreuse, la spondylarthrite ankylosante, le psoriasis et le rhumatisme psoriasique [6].
+Le succès conduit d'autres entreprises à se joindre à la course au marché. En 1998, l'étanercept (Enbrel)  est approuvé pour le traitement aux États-Unis, et en 1999, l'infliximab (Remicade) est également approuvé ; il y a plusieurs autres médicaments anti-TNF approuvés, et ils deviennent le traitement standard pour arrêter les voies inflammatoires et destructrices des tissus de la polyarthrite rhumatoïde et d'autres maladies auto-immunes, notamment la maladie de Crohn, la colite ulcéreuse, la spondylarthrite ankylosante, le psoriasis et le rhumatisme psoriasique .
 </t>
         </is>
       </c>
@@ -578,11 +594,13 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2000, Feldmann et Maini reçoivent le prix Crafoord [11],[12], en 2003, le Prix Albert-Lasker pour la recherche médicale clinique [13], en 2002, le Cameron Prize for Therapeutics de l'Université d'Edimbourg; en 2008, le prix Dr Paul Janssen pour la recherche biomédicale [14], en 2010, le prix Ernst Schering en Allemagne ; en 2014, le prix international Canada Gairdner. Feldmann reçoit également la médaille John Curtin de l'Université nationale australienne en 2007. En 2020, il reçoit le prix Tang en sciences biopharmaceutiques [15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, Feldmann et Maini reçoivent le prix Crafoord  en 2003, le Prix Albert-Lasker pour la recherche médicale clinique , en 2002, le Cameron Prize for Therapeutics de l'Université d'Edimbourg; en 2008, le prix Dr Paul Janssen pour la recherche biomédicale , en 2010, le prix Ernst Schering en Allemagne ; en 2014, le prix international Canada Gairdner. Feldmann reçoit également la médaille John Curtin de l'Université nationale australienne en 2007. En 2020, il reçoit le prix Tang en sciences biopharmaceutiques .
 Feldmann est membre du Royal College of Physicians et du Royal College of Pathologists. Il est élu membre de plusieurs académies nationales, à l'Académie des sciences médicales, à la Royal Society de Londres et est membre correspondant de l'Académie des sciences australienne et membre étranger de la Académie nationale des sciences des États-Unis. Il est fait chevalier lors des honneurs de l'anniversaire de la reine en 2010.
-En 2012, il prononce la conférence Croonian au Royal College of Physicians sur la thérapie anti-cytokine [16].
+En 2012, il prononce la conférence Croonian au Royal College of Physicians sur la thérapie anti-cytokine .
 </t>
         </is>
       </c>
